--- a/supraja_testcases.xlsx
+++ b/supraja_testcases.xlsx
@@ -5,10 +5,10 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\supraja\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\supraja\eclipse-workspace\1234\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{08D5CA6A-302A-4C01-8FAA-3A248E7ADAB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D163491B-9241-446E-935F-755989D5CFDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="750" firstSheet="1" activeTab="1" xr2:uid="{90B941C3-5BAA-42D7-B1AC-A5F8179E0490}"/>
   </bookViews>
@@ -27,14 +27,14 @@
   <definedNames>
     <definedName name="BA">#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">References!$A$1:$I$7</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'Test Cases'!$B$1:$N$15</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Test Cases'!$B$1:$N$10</definedName>
     <definedName name="priority">'[1]Development Phase Query'!#REF!</definedName>
     <definedName name="User">#REF!</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <customWorkbookViews>
+    <customWorkbookView name="igate - Personal View" guid="{D38D479A-4772-446A-9168-3CDAF7B2D6D0}" personalView="1" maximized="1" windowWidth="1276" windowHeight="602" tabRatio="750" activeSheetId="0" showComments="commNone"/>
     <customWorkbookView name="701193 - Personal View" guid="{6ED93A24-CCCD-4D33-91E5-F4969E7AE70E}" personalView="1" maximized="1" windowWidth="1020" windowHeight="570" tabRatio="750" activeSheetId="0" showComments="commNone"/>
-    <customWorkbookView name="igate - Personal View" guid="{D38D479A-4772-446A-9168-3CDAF7B2D6D0}" personalView="1" maximized="1" windowWidth="1276" windowHeight="602" tabRatio="750" activeSheetId="0" showComments="commNone"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="277">
   <si>
     <t>Test Case Template</t>
   </si>
@@ -139,9 +139,6 @@
   </si>
   <si>
     <t>Assumptions</t>
-  </si>
-  <si>
-    <t>The website is up and running.</t>
   </si>
   <si>
     <t>Test Case ID</t>
@@ -272,9 +269,6 @@
 age: 100</t>
   </si>
   <si>
-    <t>Question - 2</t>
-  </si>
-  <si>
     <t>Examination Passing Marks</t>
   </si>
   <si>
@@ -352,9 +346,6 @@
     <t>It should display salary Rs. 15750</t>
   </si>
   <si>
-    <t>Question - 4</t>
-  </si>
-  <si>
     <t>Winter Sale eligibility</t>
   </si>
   <si>
@@ -386,9 +377,6 @@
     <t>Browser: Chrome
 URL: www.wintersale.com
 Age: 65</t>
-  </si>
-  <si>
-    <t>Question - 5</t>
   </si>
   <si>
     <t>Printer Cartridge Order</t>
@@ -421,9 +409,6 @@
   </si>
   <si>
     <t>It should apply 20% discount</t>
-  </si>
-  <si>
-    <t>Question - 6</t>
   </si>
   <si>
     <t>Bonus based on service</t>
@@ -1115,12 +1100,6 @@
   </si>
   <si>
     <t xml:space="preserve"> bonus service</t>
-  </si>
-  <si>
-    <t>question-1</t>
-  </si>
-  <si>
-    <t>question 3</t>
   </si>
   <si>
     <t>It should display bonus 25%</t>
@@ -1300,7 +1279,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -1507,13 +1486,67 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom/>
@@ -1523,89 +1556,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
@@ -1753,7 +1704,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1841,9 +1792,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1902,9 +1850,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1914,18 +1859,12 @@
     <xf numFmtId="0" fontId="16" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1944,28 +1883,18 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1981,7 +1910,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1993,24 +1922,18 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2020,90 +1943,65 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Norm??" xfId="1" xr:uid="{8B949075-E5B4-4F07-9F8C-33994733E6FD}"/>
@@ -2212,6 +2110,14 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -2221,14 +2127,6 @@
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2774,119 +2672,119 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.453125" defaultRowHeight="17.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="13.453125" style="40" customWidth="1"/>
-    <col min="2" max="2" width="22.1796875" style="40" customWidth="1"/>
-    <col min="3" max="3" width="36.453125" style="40" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.81640625" style="40" customWidth="1"/>
-    <col min="5" max="5" width="13.453125" style="40" customWidth="1"/>
-    <col min="6" max="22" width="10.453125" style="40" customWidth="1"/>
-    <col min="23" max="16384" width="10.453125" style="41"/>
+    <col min="1" max="1" width="13.453125" style="39" customWidth="1"/>
+    <col min="2" max="2" width="22.1796875" style="39" customWidth="1"/>
+    <col min="3" max="3" width="36.453125" style="39" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.81640625" style="39" customWidth="1"/>
+    <col min="5" max="5" width="13.453125" style="39" customWidth="1"/>
+    <col min="6" max="22" width="10.453125" style="39" customWidth="1"/>
+    <col min="23" max="16384" width="10.453125" style="40"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:4" s="38" customFormat="1" ht="23">
-      <c r="B4" s="82" t="s">
+    <row r="4" spans="2:4" s="37" customFormat="1" ht="23">
+      <c r="B4" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
-    </row>
-    <row r="5" spans="2:4" s="39" customFormat="1" ht="15.5">
-      <c r="C5" s="42" t="s">
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+    </row>
+    <row r="5" spans="2:4" s="38" customFormat="1" ht="15.5">
+      <c r="C5" s="41" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="17.25" customHeight="1">
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="83" t="s">
+      <c r="C7" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="84"/>
+      <c r="D7" s="76"/>
     </row>
     <row r="8" spans="2:4" ht="17.25" customHeight="1">
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="83" t="s">
+      <c r="C8" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="84"/>
+      <c r="D8" s="76"/>
     </row>
     <row r="9" spans="2:4" ht="17.25" customHeight="1">
-      <c r="B9" s="44"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
     </row>
     <row r="11" spans="2:4" ht="17.25" customHeight="1">
-      <c r="B11" s="45" t="s">
+      <c r="B11" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="45" t="s">
+      <c r="C11" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="45" t="s">
+      <c r="D11" s="44" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="25">
-      <c r="B12" s="46" t="s">
+      <c r="B12" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="46" t="s">
+      <c r="C12" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="47"/>
+      <c r="D12" s="46"/>
     </row>
     <row r="13" spans="2:4" ht="17.25" customHeight="1">
-      <c r="B13" s="45" t="s">
+      <c r="B13" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="45" t="s">
+      <c r="C13" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="45" t="s">
+      <c r="D13" s="44" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="14">
-      <c r="B14" s="46"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="47"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="46"/>
     </row>
     <row r="15" spans="2:4" ht="17.25" customHeight="1">
-      <c r="B15" s="45" t="s">
+      <c r="B15" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="45" t="s">
+      <c r="C15" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="45" t="s">
+      <c r="D15" s="44" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="16" spans="2:4" ht="14">
-      <c r="B16" s="46"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="47"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="46"/>
     </row>
     <row r="17" spans="2:4" ht="30" customHeight="1">
-      <c r="B17" s="48" t="s">
+      <c r="B17" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="49"/>
-      <c r="D17" s="85" t="s">
+      <c r="C17" s="48"/>
+      <c r="D17" s="77" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="17.25" customHeight="1">
-      <c r="B18" s="48" t="s">
+      <c r="B18" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="50">
+      <c r="C18" s="49">
         <v>1</v>
       </c>
-      <c r="D18" s="86"/>
+      <c r="D18" s="78"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2908,13 +2806,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAEF8C85-8216-42E2-BB20-AE4FA7AE9A6A}">
-  <dimension ref="A1:O74"/>
+  <dimension ref="A1:N61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="56" zoomScaleNormal="116" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H37" sqref="H37"/>
+      <selection pane="bottomRight" activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5"/>
@@ -2934,969 +2832,779 @@
     <col min="14" max="14" width="17.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="13.5" thickBot="1">
-      <c r="A1" s="66"/>
-      <c r="B1" s="87" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="88"/>
-    </row>
-    <row r="2" spans="1:14" ht="13">
-      <c r="A2" s="67" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="89" t="s">
+    <row r="1" spans="1:14" ht="25.5" customHeight="1">
+      <c r="A1" s="62"/>
+      <c r="B1" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="90"/>
-      <c r="K2" s="90"/>
-      <c r="L2" s="90"/>
-      <c r="M2" s="90"/>
-      <c r="N2" s="91"/>
-    </row>
-    <row r="3" spans="1:14" ht="25.5" customHeight="1">
-      <c r="A3" s="68"/>
-      <c r="B3" s="29" t="s">
+      <c r="C1" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="D1" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="E1" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="30" t="s">
+      <c r="F1" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="30" t="s">
+      <c r="G1" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="30" t="s">
+      <c r="H1" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="30" t="s">
+      <c r="I1" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="30" t="s">
+      <c r="J1" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="21" t="s">
+      <c r="K1" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="K3" s="21" t="s">
+      <c r="L1" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="L3" s="21" t="s">
+      <c r="M1" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="M3" s="30" t="s">
+      <c r="N1" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="N3" s="34" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="13">
-      <c r="A4" s="68"/>
-      <c r="B4" s="29" t="s">
-        <v>280</v>
-      </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="92"/>
-      <c r="E4" s="93"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="92" t="s">
+    </row>
+    <row r="2" spans="1:14" ht="101.25" customHeight="1">
+      <c r="A2" s="31"/>
+      <c r="B2" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="I4" s="93"/>
-      <c r="J4" s="93"/>
-      <c r="K4" s="70"/>
-      <c r="L4" s="70"/>
-      <c r="M4" s="70"/>
-      <c r="N4" s="71"/>
-    </row>
-    <row r="5" spans="1:14" ht="101.25" customHeight="1">
+      <c r="C2" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" s="25" t="s">
+        <v>265</v>
+      </c>
+      <c r="I2" s="25"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="51"/>
+    </row>
+    <row r="3" spans="1:14" ht="101.25" customHeight="1">
+      <c r="A3" s="31"/>
+      <c r="B3" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="I3" s="25"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="51"/>
+    </row>
+    <row r="4" spans="1:14" ht="95.25" customHeight="1">
+      <c r="A4" s="31"/>
+      <c r="B4" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="F4" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="I4" s="26"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="51"/>
+    </row>
+    <row r="5" spans="1:14" ht="88.5" customHeight="1">
       <c r="A5" s="31"/>
       <c r="B5" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="D5" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="25" t="s">
-        <v>37</v>
-      </c>
       <c r="E5" s="26" t="s">
+        <v>266</v>
+      </c>
+      <c r="F5" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="F5" s="26" t="s">
-        <v>39</v>
-      </c>
       <c r="G5" s="26" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="H5" s="25" t="s">
-        <v>270</v>
-      </c>
-      <c r="I5" s="25"/>
+        <v>43</v>
+      </c>
+      <c r="I5" s="26"/>
       <c r="J5" s="24"/>
-      <c r="K5" s="25"/>
+      <c r="K5" s="26"/>
       <c r="L5" s="24"/>
       <c r="M5" s="25"/>
-      <c r="N5" s="53"/>
-    </row>
-    <row r="6" spans="1:14" ht="101.25" customHeight="1">
+      <c r="N5" s="51"/>
+    </row>
+    <row r="6" spans="1:14" ht="80.25" customHeight="1">
       <c r="A6" s="31"/>
       <c r="B6" s="23" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C6" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="25" t="s">
-        <v>37</v>
-      </c>
       <c r="E6" s="26" t="s">
-        <v>42</v>
+        <v>268</v>
       </c>
       <c r="F6" s="26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G6" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="H6" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="I6" s="25"/>
+      <c r="I6" s="26"/>
       <c r="J6" s="24"/>
-      <c r="K6" s="25"/>
+      <c r="K6" s="26"/>
       <c r="L6" s="24"/>
       <c r="M6" s="25"/>
-      <c r="N6" s="53"/>
+      <c r="N6" s="51"/>
     </row>
     <row r="7" spans="1:14" ht="95.25" customHeight="1">
       <c r="A7" s="31"/>
       <c r="B7" s="23" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C7" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="25" t="s">
-        <v>37</v>
-      </c>
       <c r="E7" s="26" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F7" s="26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G7" s="26" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="H7" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="I7" s="26"/>
+        <v>265</v>
+      </c>
+      <c r="I7" s="25"/>
       <c r="J7" s="24"/>
-      <c r="K7" s="26"/>
+      <c r="K7" s="25"/>
       <c r="L7" s="24"/>
       <c r="M7" s="25"/>
-      <c r="N7" s="53"/>
-    </row>
-    <row r="8" spans="1:14" ht="88.5" customHeight="1">
+      <c r="N7" s="51"/>
+    </row>
+    <row r="8" spans="1:14" ht="65">
       <c r="A8" s="31"/>
       <c r="B8" s="23" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="E8" s="26" t="s">
-        <v>271</v>
+        <v>54</v>
       </c>
       <c r="F8" s="26" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="G8" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="H8" s="25" t="s">
-        <v>44</v>
+        <v>56</v>
+      </c>
+      <c r="H8" s="26" t="s">
+        <v>57</v>
       </c>
       <c r="I8" s="26"/>
       <c r="J8" s="24"/>
       <c r="K8" s="26"/>
       <c r="L8" s="24"/>
       <c r="M8" s="25"/>
-      <c r="N8" s="53"/>
-    </row>
-    <row r="9" spans="1:14" ht="80.25" customHeight="1">
+      <c r="N8" s="51"/>
+    </row>
+    <row r="9" spans="1:14" ht="65">
       <c r="A9" s="31"/>
       <c r="B9" s="23" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>273</v>
+        <v>54</v>
       </c>
       <c r="F9" s="26" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="G9" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="H9" s="25" t="s">
-        <v>44</v>
+        <v>58</v>
+      </c>
+      <c r="H9" s="26" t="s">
+        <v>59</v>
       </c>
       <c r="I9" s="26"/>
       <c r="J9" s="24"/>
       <c r="K9" s="26"/>
       <c r="L9" s="24"/>
       <c r="M9" s="25"/>
-      <c r="N9" s="53"/>
-    </row>
-    <row r="10" spans="1:14" ht="95.25" customHeight="1">
+      <c r="N9" s="51"/>
+    </row>
+    <row r="10" spans="1:14" ht="65">
       <c r="A10" s="31"/>
       <c r="B10" s="23" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="E10" s="26" t="s">
-        <v>274</v>
+        <v>54</v>
       </c>
       <c r="F10" s="26" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="G10" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="H10" s="25" t="s">
-        <v>270</v>
-      </c>
-      <c r="I10" s="25"/>
+        <v>60</v>
+      </c>
+      <c r="H10" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="I10" s="26"/>
       <c r="J10" s="24"/>
-      <c r="K10" s="25"/>
+      <c r="K10" s="26"/>
       <c r="L10" s="24"/>
       <c r="M10" s="25"/>
-      <c r="N10" s="53"/>
-    </row>
-    <row r="11" spans="1:14" s="121" customFormat="1" ht="13">
-      <c r="A11" s="33"/>
-      <c r="B11" s="119"/>
-      <c r="C11" s="117"/>
-      <c r="D11" s="114"/>
-      <c r="E11" s="115"/>
-      <c r="F11" s="115"/>
-      <c r="G11" s="115"/>
-      <c r="H11" s="115"/>
-      <c r="I11" s="115"/>
-      <c r="J11" s="117"/>
-      <c r="K11" s="115"/>
-      <c r="L11" s="117"/>
-      <c r="M11" s="114"/>
-      <c r="N11" s="118"/>
-    </row>
-    <row r="12" spans="1:14" s="121" customFormat="1" ht="13">
-      <c r="A12" s="33"/>
-      <c r="B12" s="119" t="s">
-        <v>53</v>
-      </c>
-      <c r="C12" s="117"/>
-      <c r="D12" s="114"/>
-      <c r="E12" s="115"/>
-      <c r="F12" s="115"/>
-      <c r="G12" s="115"/>
-      <c r="H12" s="115"/>
-      <c r="I12" s="115"/>
-      <c r="J12" s="117"/>
-      <c r="K12" s="115"/>
-      <c r="L12" s="117"/>
-      <c r="M12" s="114"/>
-      <c r="N12" s="118"/>
+      <c r="N10" s="28"/>
+    </row>
+    <row r="11" spans="1:14" ht="65">
+      <c r="A11" s="31"/>
+      <c r="B11" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="26" t="s">
+        <v>270</v>
+      </c>
+      <c r="F11" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="G11" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="H11" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="I11" s="26"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="34"/>
+      <c r="N11" s="28"/>
+    </row>
+    <row r="12" spans="1:14" ht="65">
+      <c r="A12" s="31"/>
+      <c r="B12" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="26" t="s">
+        <v>270</v>
+      </c>
+      <c r="F12" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="G12" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="H12" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="I12" s="26"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="34"/>
+      <c r="M12" s="34"/>
+      <c r="N12" s="28"/>
     </row>
     <row r="13" spans="1:14" ht="65">
-      <c r="A13" s="31"/>
       <c r="B13" s="23" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="E13" s="26" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="F13" s="26" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="G13" s="26" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="H13" s="26" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="I13" s="26"/>
       <c r="J13" s="24"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="25"/>
-      <c r="N13" s="53"/>
-    </row>
-    <row r="14" spans="1:14" ht="65">
+      <c r="K13" s="34"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="34"/>
+      <c r="N13" s="28"/>
+    </row>
+    <row r="14" spans="1:14" ht="79.5" customHeight="1">
       <c r="A14" s="31"/>
       <c r="B14" s="23" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="E14" s="26" t="s">
-        <v>56</v>
+        <v>271</v>
       </c>
       <c r="F14" s="26" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="G14" s="26" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="H14" s="26" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="I14" s="26"/>
       <c r="J14" s="24"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="25"/>
-      <c r="N14" s="53"/>
-    </row>
-    <row r="15" spans="1:14" ht="65">
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="34"/>
+      <c r="N14" s="28"/>
+    </row>
+    <row r="15" spans="1:14" ht="52">
       <c r="A15" s="31"/>
       <c r="B15" s="23" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="E15" s="26" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="F15" s="26" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="G15" s="26" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="H15" s="26" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="I15" s="26"/>
       <c r="J15" s="24"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="25"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="34"/>
+      <c r="M15" s="34"/>
       <c r="N15" s="28"/>
     </row>
-    <row r="16" spans="1:14" ht="13">
-      <c r="A16" s="33"/>
-      <c r="B16" s="33" t="s">
-        <v>281</v>
-      </c>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="33"/>
-      <c r="J16" s="33"/>
-      <c r="K16" s="33"/>
-      <c r="L16" s="33"/>
-      <c r="M16" s="33"/>
-      <c r="N16" s="33"/>
-    </row>
-    <row r="17" spans="1:15" ht="13">
-      <c r="A17" s="33"/>
-      <c r="B17" s="33"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="33"/>
-      <c r="I17" s="33"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="33"/>
-      <c r="L17" s="33"/>
-      <c r="M17" s="33"/>
-      <c r="N17" s="33"/>
-      <c r="O17" s="116"/>
-    </row>
-    <row r="18" spans="1:15" ht="65">
+    <row r="16" spans="1:14" ht="52">
+      <c r="A16" s="31"/>
+      <c r="B16" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="E16" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="F16" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="G16" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="H16" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="I16" s="26"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="34"/>
+      <c r="M16" s="34"/>
+      <c r="N16" s="28"/>
+    </row>
+    <row r="17" spans="1:14" ht="65">
+      <c r="A17" s="31"/>
+      <c r="B17" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="E17" s="26" t="s">
+        <v>273</v>
+      </c>
+      <c r="F17" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="G17" s="72" t="s">
+        <v>82</v>
+      </c>
+      <c r="H17" s="73" t="s">
+        <v>83</v>
+      </c>
+      <c r="I17" s="26"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="34"/>
+      <c r="M17" s="34"/>
+      <c r="N17" s="28"/>
+    </row>
+    <row r="18" spans="1:14" ht="65">
       <c r="A18" s="31"/>
       <c r="B18" s="23" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="E18" s="26" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F18" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="G18" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="H18" s="26" t="s">
-        <v>68</v>
+        <v>81</v>
+      </c>
+      <c r="G18" s="72" t="s">
+        <v>84</v>
+      </c>
+      <c r="H18" s="73" t="s">
+        <v>85</v>
       </c>
       <c r="I18" s="26"/>
       <c r="J18" s="24"/>
-      <c r="K18" s="26"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="35"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="34"/>
+      <c r="M18" s="34"/>
       <c r="N18" s="28"/>
     </row>
-    <row r="19" spans="1:15" ht="65">
+    <row r="19" spans="1:14" ht="65">
       <c r="A19" s="31"/>
       <c r="B19" s="23" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="E19" s="26" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F19" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="G19" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="H19" s="26" t="s">
-        <v>70</v>
+        <v>81</v>
+      </c>
+      <c r="G19" s="72" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" s="73" t="s">
+        <v>86</v>
       </c>
       <c r="I19" s="26"/>
       <c r="J19" s="24"/>
-      <c r="K19" s="35"/>
-      <c r="L19" s="35"/>
-      <c r="M19" s="35"/>
+      <c r="K19" s="34"/>
+      <c r="L19" s="34"/>
+      <c r="M19" s="34"/>
       <c r="N19" s="28"/>
     </row>
-    <row r="20" spans="1:15" ht="65">
+    <row r="20" spans="1:14" ht="65">
+      <c r="A20" s="31"/>
       <c r="B20" s="23" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="E20" s="26" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="F20" s="26" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="G20" s="26" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="H20" s="26" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="I20" s="26"/>
       <c r="J20" s="24"/>
-      <c r="K20" s="35"/>
-      <c r="L20" s="35"/>
-      <c r="M20" s="35"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="25"/>
       <c r="N20" s="28"/>
     </row>
-    <row r="21" spans="1:15" ht="13">
-      <c r="A21" s="33"/>
-      <c r="B21" s="33"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="33"/>
-      <c r="I21" s="33"/>
-      <c r="J21" s="33"/>
-      <c r="K21" s="33"/>
-      <c r="L21" s="33"/>
-      <c r="M21" s="33"/>
-      <c r="N21" s="33"/>
-    </row>
-    <row r="22" spans="1:15" s="121" customFormat="1" ht="13">
-      <c r="A22" s="33"/>
-      <c r="B22" s="119" t="s">
-        <v>73</v>
-      </c>
-      <c r="C22" s="117"/>
-      <c r="D22" s="114"/>
-      <c r="E22" s="115"/>
-      <c r="F22" s="115"/>
-      <c r="G22" s="115"/>
-      <c r="H22" s="115"/>
-      <c r="I22" s="115"/>
-      <c r="J22" s="117"/>
-      <c r="K22" s="52"/>
-      <c r="L22" s="52"/>
-      <c r="M22" s="52"/>
-      <c r="N22" s="120"/>
-    </row>
-    <row r="23" spans="1:15" ht="79.5" customHeight="1">
+    <row r="21" spans="1:14" ht="65">
+      <c r="A21" s="31"/>
+      <c r="B21" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="D21" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="E21" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="F21" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="G21" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="H21" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="I21" s="26"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="35"/>
+      <c r="L21" s="35"/>
+      <c r="M21" s="35"/>
+      <c r="N21" s="28"/>
+    </row>
+    <row r="22" spans="1:14" ht="65">
+      <c r="A22" s="31"/>
+      <c r="B22" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="D22" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="E22" s="26" t="s">
+        <v>274</v>
+      </c>
+      <c r="F22" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="G22" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="H22" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="I22" s="26"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="35"/>
+      <c r="M22" s="35"/>
+      <c r="N22" s="28"/>
+    </row>
+    <row r="23" spans="1:14" ht="65">
       <c r="A23" s="31"/>
       <c r="B23" s="23" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="E23" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="F23" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="G23" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="H23" s="36" t="s">
+        <v>275</v>
+      </c>
+      <c r="I23" s="36"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="34"/>
+      <c r="L23" s="34"/>
+      <c r="M23" s="34"/>
+    </row>
+    <row r="24" spans="1:14" ht="65">
+      <c r="A24" s="32"/>
+      <c r="B24" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="D24" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="E24" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="F24" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="G24" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="H24" s="60" t="s">
         <v>276</v>
       </c>
-      <c r="F23" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="G23" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="H23" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="I23" s="26"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="35"/>
-      <c r="L23" s="35"/>
-      <c r="M23" s="35"/>
-      <c r="N23" s="28"/>
-    </row>
-    <row r="24" spans="1:15" ht="52">
-      <c r="A24" s="31"/>
-      <c r="B24" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="D24" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="E24" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="F24" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="G24" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="H24" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="I24" s="26"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="35"/>
-      <c r="L24" s="35"/>
-      <c r="M24" s="35"/>
-      <c r="N24" s="28"/>
-    </row>
-    <row r="25" spans="1:15" ht="52">
-      <c r="A25" s="31"/>
-      <c r="B25" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="C25" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="D25" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="E25" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="F25" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="G25" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="H25" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="I25" s="26"/>
-      <c r="J25" s="24"/>
-      <c r="K25" s="35"/>
-      <c r="L25" s="35"/>
-      <c r="M25" s="35"/>
-      <c r="N25" s="28"/>
-    </row>
-    <row r="26" spans="1:15" s="121" customFormat="1" ht="13">
-      <c r="A26" s="33"/>
-      <c r="B26" s="119"/>
-      <c r="C26" s="117"/>
-      <c r="D26" s="114"/>
-      <c r="E26" s="115"/>
-      <c r="F26" s="115"/>
-      <c r="G26" s="115"/>
-      <c r="H26" s="115"/>
-      <c r="I26" s="115"/>
-      <c r="J26" s="117"/>
-      <c r="K26" s="52"/>
-      <c r="L26" s="52"/>
-      <c r="M26" s="52"/>
-      <c r="N26" s="120"/>
-    </row>
-    <row r="27" spans="1:15" s="121" customFormat="1" ht="13">
-      <c r="A27" s="33"/>
-      <c r="B27" s="119" t="s">
-        <v>82</v>
-      </c>
-      <c r="C27" s="117"/>
-      <c r="D27" s="114"/>
-      <c r="E27" s="115"/>
-      <c r="F27" s="115"/>
-      <c r="G27" s="115"/>
-      <c r="H27" s="115"/>
-      <c r="I27" s="115"/>
-      <c r="J27" s="117"/>
-      <c r="K27" s="52"/>
-      <c r="L27" s="52"/>
-      <c r="M27" s="52"/>
-      <c r="N27" s="120"/>
-    </row>
-    <row r="28" spans="1:15" ht="65">
-      <c r="A28" s="31"/>
-      <c r="B28" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="C28" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="D28" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="E28" s="26" t="s">
-        <v>278</v>
-      </c>
-      <c r="F28" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="G28" s="80" t="s">
-        <v>86</v>
-      </c>
-      <c r="H28" s="81" t="s">
-        <v>87</v>
-      </c>
-      <c r="I28" s="26"/>
-      <c r="J28" s="24"/>
-      <c r="K28" s="35"/>
-      <c r="L28" s="35"/>
-      <c r="M28" s="35"/>
-      <c r="N28" s="28"/>
-    </row>
-    <row r="29" spans="1:15" ht="65">
-      <c r="A29" s="31"/>
-      <c r="B29" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="C29" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="D29" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="E29" s="26" t="s">
-        <v>277</v>
-      </c>
-      <c r="F29" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="G29" s="80" t="s">
-        <v>88</v>
-      </c>
-      <c r="H29" s="81" t="s">
-        <v>89</v>
-      </c>
-      <c r="I29" s="26"/>
-      <c r="J29" s="24"/>
-      <c r="K29" s="35"/>
-      <c r="L29" s="35"/>
-      <c r="M29" s="35"/>
-      <c r="N29" s="28"/>
-    </row>
-    <row r="30" spans="1:15" ht="65">
-      <c r="A30" s="31"/>
-      <c r="B30" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="C30" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="D30" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="E30" s="26" t="s">
-        <v>278</v>
-      </c>
-      <c r="F30" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="G30" s="80" t="s">
-        <v>46</v>
-      </c>
-      <c r="H30" s="81" t="s">
-        <v>90</v>
-      </c>
-      <c r="I30" s="26"/>
-      <c r="J30" s="24"/>
-      <c r="K30" s="35"/>
-      <c r="L30" s="35"/>
-      <c r="M30" s="35"/>
-      <c r="N30" s="28"/>
-    </row>
-    <row r="31" spans="1:15" s="121" customFormat="1" ht="13">
-      <c r="A31" s="33"/>
-      <c r="B31" s="119"/>
-      <c r="C31" s="117"/>
-      <c r="D31" s="114"/>
-      <c r="E31" s="115"/>
-      <c r="F31" s="115"/>
-      <c r="G31" s="115"/>
-      <c r="H31" s="115"/>
-      <c r="I31" s="115"/>
-      <c r="J31" s="117"/>
-      <c r="K31" s="52"/>
-      <c r="L31" s="52"/>
-      <c r="M31" s="52"/>
-      <c r="N31" s="120"/>
-    </row>
-    <row r="32" spans="1:15" s="121" customFormat="1" ht="13">
-      <c r="A32" s="33"/>
-      <c r="B32" s="119" t="s">
-        <v>91</v>
-      </c>
-      <c r="C32" s="117"/>
-      <c r="D32" s="114"/>
-      <c r="E32" s="115"/>
-      <c r="F32" s="115"/>
-      <c r="G32" s="115"/>
-      <c r="H32" s="115"/>
-      <c r="I32" s="115"/>
-      <c r="J32" s="117"/>
-      <c r="K32" s="52"/>
-      <c r="L32" s="52"/>
-      <c r="M32" s="52"/>
-      <c r="N32" s="120"/>
-    </row>
-    <row r="33" spans="1:14" ht="65">
-      <c r="A33" s="31"/>
-      <c r="B33" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="C33" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="D33" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="E33" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="F33" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="G33" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="H33" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="I33" s="26"/>
-      <c r="J33" s="24"/>
-      <c r="K33" s="26"/>
-      <c r="L33" s="24"/>
-      <c r="M33" s="25"/>
-      <c r="N33" s="28"/>
-    </row>
-    <row r="34" spans="1:14" ht="65">
-      <c r="A34" s="31"/>
-      <c r="B34" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="C34" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="D34" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="E34" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="F34" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="G34" s="26" t="s">
-        <v>98</v>
-      </c>
-      <c r="H34" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="I34" s="26"/>
-      <c r="J34" s="24"/>
-      <c r="K34" s="36"/>
-      <c r="L34" s="36"/>
-      <c r="M34" s="36"/>
-      <c r="N34" s="28"/>
-    </row>
-    <row r="35" spans="1:14" ht="65">
-      <c r="A35" s="31"/>
-      <c r="B35" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="C35" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="D35" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="E35" s="26" t="s">
-        <v>279</v>
-      </c>
-      <c r="F35" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="G35" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="H35" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="I35" s="26"/>
-      <c r="J35" s="24"/>
-      <c r="K35" s="36"/>
-      <c r="L35" s="36"/>
-      <c r="M35" s="36"/>
-      <c r="N35" s="28"/>
-    </row>
-    <row r="36" spans="1:14" ht="65">
-      <c r="A36" s="31"/>
-      <c r="B36" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="C36" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="D36" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="E36" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="F36" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="G36" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="H36" s="37" t="s">
-        <v>282</v>
-      </c>
-      <c r="I36" s="37"/>
-      <c r="J36" s="24"/>
-      <c r="K36" s="35"/>
-      <c r="L36" s="35"/>
-      <c r="M36" s="35"/>
-    </row>
-    <row r="37" spans="1:14" ht="65.5" thickBot="1">
-      <c r="A37" s="32"/>
-      <c r="B37" s="65" t="s">
-        <v>49</v>
-      </c>
-      <c r="C37" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="D37" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="E37" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="F37" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="G37" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="H37" s="64" t="s">
-        <v>283</v>
-      </c>
-      <c r="I37" s="64"/>
-      <c r="J37" s="54"/>
-      <c r="K37" s="64"/>
-      <c r="L37" s="54"/>
-      <c r="M37" s="63"/>
+      <c r="I24" s="60"/>
+      <c r="J24" s="52"/>
+      <c r="K24" s="60"/>
+      <c r="L24" s="52"/>
+      <c r="M24" s="59"/>
+    </row>
+    <row r="36" spans="14:14" ht="13">
+      <c r="N36" s="28"/>
+    </row>
+    <row r="37" spans="14:14" ht="13">
+      <c r="N37" s="28"/>
+    </row>
+    <row r="38" spans="14:14" ht="13">
+      <c r="N38" s="28"/>
+    </row>
+    <row r="39" spans="14:14" ht="13">
+      <c r="N39" s="28"/>
+    </row>
+    <row r="40" spans="14:14" ht="13">
+      <c r="N40" s="53"/>
+    </row>
+    <row r="41" spans="14:14" ht="13">
+      <c r="N41" s="28"/>
+    </row>
+    <row r="42" spans="14:14" ht="13">
+      <c r="N42" s="28"/>
+    </row>
+    <row r="43" spans="14:14" ht="13">
+      <c r="N43" s="28"/>
+    </row>
+    <row r="44" spans="14:14" ht="13">
+      <c r="N44" s="28"/>
+    </row>
+    <row r="45" spans="14:14" ht="13">
+      <c r="N45" s="28"/>
+    </row>
+    <row r="46" spans="14:14" ht="13">
+      <c r="N46" s="28"/>
+    </row>
+    <row r="47" spans="14:14" ht="13">
+      <c r="N47" s="28"/>
+    </row>
+    <row r="48" spans="14:14" ht="13">
+      <c r="N48" s="28"/>
     </row>
     <row r="49" spans="14:14" ht="13">
       <c r="N49" s="28"/>
     </row>
     <row r="50" spans="14:14" ht="13">
-      <c r="N50" s="28"/>
+      <c r="N50" s="53"/>
     </row>
     <row r="51" spans="14:14" ht="13">
       <c r="N51" s="28"/>
@@ -3905,7 +3613,7 @@
       <c r="N52" s="28"/>
     </row>
     <row r="53" spans="14:14" ht="13">
-      <c r="N53" s="55"/>
+      <c r="N53" s="28"/>
     </row>
     <row r="54" spans="14:14" ht="13">
       <c r="N54" s="28"/>
@@ -3919,59 +3627,29 @@
     <row r="57" spans="14:14" ht="13">
       <c r="N57" s="28"/>
     </row>
-    <row r="58" spans="14:14" ht="13">
+    <row r="58" spans="14:14" ht="120.75" customHeight="1">
       <c r="N58" s="28"/>
     </row>
-    <row r="59" spans="14:14" ht="13">
+    <row r="59" spans="14:14" ht="21.75" customHeight="1">
       <c r="N59" s="28"/>
     </row>
-    <row r="60" spans="14:14" ht="13">
+    <row r="60" spans="14:14" ht="54.75" customHeight="1">
       <c r="N60" s="28"/>
     </row>
-    <row r="61" spans="14:14" ht="13">
-      <c r="N61" s="28"/>
-    </row>
-    <row r="62" spans="14:14" ht="13">
-      <c r="N62" s="28"/>
-    </row>
-    <row r="63" spans="14:14" ht="13">
-      <c r="N63" s="55"/>
-    </row>
-    <row r="64" spans="14:14" ht="13">
-      <c r="N64" s="28"/>
-    </row>
-    <row r="65" spans="14:14" ht="13">
-      <c r="N65" s="28"/>
-    </row>
-    <row r="66" spans="14:14" ht="13">
-      <c r="N66" s="28"/>
-    </row>
-    <row r="67" spans="14:14" ht="13">
-      <c r="N67" s="28"/>
-    </row>
-    <row r="68" spans="14:14" ht="13">
-      <c r="N68" s="28"/>
-    </row>
-    <row r="69" spans="14:14" ht="13">
-      <c r="N69" s="28"/>
-    </row>
-    <row r="70" spans="14:14" ht="13">
-      <c r="N70" s="28"/>
-    </row>
-    <row r="71" spans="14:14" ht="120.75" customHeight="1">
-      <c r="N71" s="28"/>
-    </row>
-    <row r="72" spans="14:14" ht="21.75" customHeight="1">
-      <c r="N72" s="28"/>
-    </row>
-    <row r="73" spans="14:14" ht="54.75" customHeight="1">
-      <c r="N73" s="28"/>
-    </row>
-    <row r="74" spans="14:14" ht="88.5" customHeight="1" thickBot="1">
-      <c r="N74" s="69"/>
+    <row r="61" spans="14:14" ht="88.5" customHeight="1" thickBot="1">
+      <c r="N61" s="63"/>
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{D38D479A-4772-446A-9168-3CDAF7B2D6D0}" showRuler="0">
+      <selection activeCell="B10" sqref="B10"/>
+      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+      <pageSetup paperSize="9" orientation="portrait"/>
+      <headerFooter alignWithMargins="0">
+        <oddHeader>&amp;LiGATE Global Solutions Limited&amp;RSystem Test Plan - &lt;Project Name&gt;</oddHeader>
+        <oddFooter>&amp;LOctober 8, 2008&amp;C&amp;"Arial,Bold"Version 2.2      Classification: Company Internal&amp;RPage &amp;P of &amp;N</oddFooter>
+      </headerFooter>
+    </customSheetView>
     <customSheetView guid="{6ED93A24-CCCD-4D33-91E5-F4969E7AE70E}" showPageBreaks="1" showRuler="0">
       <selection activeCell="B10" sqref="B10"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -3981,47 +3659,33 @@
         <oddFooter>&amp;LOctober 8, 2008&amp;C&amp;"Arial,Bold"Version 2.2      Classification: Company Internal&amp;RPage &amp;P of &amp;N</oddFooter>
       </headerFooter>
     </customSheetView>
-    <customSheetView guid="{D38D479A-4772-446A-9168-3CDAF7B2D6D0}" showRuler="0">
-      <selection activeCell="B10" sqref="B10"/>
-      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-      <pageSetup paperSize="9" orientation="portrait"/>
-      <headerFooter alignWithMargins="0">
-        <oddHeader>&amp;LiGATE Global Solutions Limited&amp;RSystem Test Plan - &lt;Project Name&gt;</oddHeader>
-        <oddFooter>&amp;LOctober 8, 2008&amp;C&amp;"Arial,Bold"Version 2.2      Classification: Company Internal&amp;RPage &amp;P of &amp;N</oddFooter>
-      </headerFooter>
-    </customSheetView>
   </customSheetViews>
-  <mergeCells count="5">
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="H1:N1"/>
-    <mergeCell ref="B2:N2"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="H4:J4"/>
-  </mergeCells>
-  <conditionalFormatting sqref="L5:L15 J5:J15 L18 L33 L37 J18:J20 J22:J37">
-    <cfRule type="containsText" dxfId="14" priority="94" stopIfTrue="1" operator="containsText" text="Hold">
-      <formula>NOT(ISERROR(SEARCH("Hold",J5)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="95" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="L20 L24 L2:L11 J2:J24">
+    <cfRule type="cellIs" dxfId="14" priority="95" stopIfTrue="1" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="96" stopIfTrue="1" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",J5)))</formula>
+    <cfRule type="containsText" dxfId="13" priority="96" stopIfTrue="1" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",J2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L7:L9 J11:J12 L11:L15 J14:J15 L18 J33 L33 J37 L37">
+  <conditionalFormatting sqref="L20 L24 L2:L11 J2:J24">
+    <cfRule type="containsText" dxfId="12" priority="94" stopIfTrue="1" operator="containsText" text="Hold">
+      <formula>NOT(ISERROR(SEARCH("Hold",J2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L4:L6 J9:J10 J20 L20 J24 L24 L8:L11">
     <cfRule type="containsText" dxfId="11" priority="91" stopIfTrue="1" operator="containsText" text="Hold">
-      <formula>NOT(ISERROR(SEARCH("Hold",J7)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Hold",J4)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="10" priority="92" stopIfTrue="1" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="9" priority="93" stopIfTrue="1" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",J7)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Passed",J4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L33 L37 L18 L5:L15 J5:J15 J18:J20 J22:J37" xr:uid="{8FF1A41D-399E-4AD7-AF7D-519FA4DAA97A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L20 L24 L2:L11 J2:J24" xr:uid="{8FF1A41D-399E-4AD7-AF7D-519FA4DAA97A}">
       <formula1>"Passed,Failed,Hold"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4079,156 +3743,156 @@
   <sheetData>
     <row r="1" spans="1:17" ht="13">
       <c r="A1" s="17"/>
-      <c r="B1" s="94" t="s">
+      <c r="B1" s="83" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="97"/>
-      <c r="N1" s="98"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="87"/>
     </row>
     <row r="2" spans="1:17" ht="13">
       <c r="A2" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="89" t="s">
-        <v>102</v>
-      </c>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="90"/>
-      <c r="K2" s="90"/>
-      <c r="L2" s="90"/>
-      <c r="M2" s="90"/>
-      <c r="N2" s="91"/>
+      <c r="B2" s="79" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="80"/>
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="80"/>
+      <c r="N2" s="81"/>
     </row>
     <row r="3" spans="1:17" ht="39">
       <c r="A3" s="19"/>
       <c r="B3" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="D3" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="E3" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="F3" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="G3" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="21" t="s">
+      <c r="H3" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="21" t="s">
+      <c r="I3" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="21" t="s">
+      <c r="J3" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="21" t="s">
+      <c r="K3" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="K3" s="21" t="s">
-        <v>30</v>
-      </c>
       <c r="L3" s="21" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="M3" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="N3" s="27" t="s">
         <v>32</v>
-      </c>
-      <c r="N3" s="27" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="247.5" thickBot="1">
       <c r="A4" s="22"/>
       <c r="B4" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="F4" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="G4" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="H4" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="I4" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="E4" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="F4" s="26" t="s">
-        <v>108</v>
-      </c>
-      <c r="G4" s="26" t="s">
-        <v>109</v>
-      </c>
-      <c r="H4" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="I4" s="25" t="s">
-        <v>111</v>
-      </c>
       <c r="J4" s="24" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="K4" s="25"/>
       <c r="L4" s="24"/>
       <c r="M4" s="25"/>
       <c r="N4" s="28"/>
-      <c r="Q4" s="51"/>
+      <c r="Q4" s="50"/>
     </row>
     <row r="5" spans="1:17" ht="156">
       <c r="A5" s="22"/>
       <c r="B5" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="E5" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="F5" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="G5" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="H5" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="I5" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="J5" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="E5" s="26" t="s">
+      <c r="K5" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="L5" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="M5" s="25" t="s">
         <v>116</v>
-      </c>
-      <c r="F5" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="G5" s="26" t="s">
-        <v>109</v>
-      </c>
-      <c r="H5" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="I5" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="J5" s="24" t="s">
-        <v>120</v>
-      </c>
-      <c r="K5" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="L5" s="24" t="s">
-        <v>120</v>
-      </c>
-      <c r="M5" s="25" t="s">
-        <v>121</v>
       </c>
       <c r="N5" s="28"/>
     </row>
@@ -4269,904 +3933,911 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="41.453125" style="58" customWidth="1"/>
-    <col min="2" max="2" width="48.453125" style="58" customWidth="1"/>
+    <col min="1" max="1" width="41.453125" style="55" customWidth="1"/>
+    <col min="2" max="2" width="48.453125" style="55" customWidth="1"/>
     <col min="3" max="3" width="17.453125" style="16" customWidth="1"/>
-    <col min="4" max="4" width="9.54296875" style="76" customWidth="1"/>
+    <col min="4" max="4" width="9.54296875" style="68" customWidth="1"/>
     <col min="5" max="5" width="9.1796875" style="13"/>
     <col min="6" max="6" width="14.453125" style="13" customWidth="1"/>
     <col min="7" max="16384" width="9.1796875" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="25" customHeight="1">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="94" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="96"/>
+    </row>
+    <row r="2" spans="1:4" ht="25" customHeight="1">
+      <c r="A2" s="57" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="71" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="25" customHeight="1">
+      <c r="A3" s="88" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="82"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="89"/>
+    </row>
+    <row r="4" spans="1:4" ht="25" customHeight="1">
+      <c r="A4" s="98" t="s">
+        <v>121</v>
+      </c>
+      <c r="B4" s="97" t="s">
         <v>122</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="101"/>
-    </row>
-    <row r="2" spans="1:4" ht="25" customHeight="1">
-      <c r="A2" s="61" t="s">
+      <c r="C4" s="64" t="s">
         <v>123</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="D4" s="66" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="25" customHeight="1">
+      <c r="A5" s="98"/>
+      <c r="B5" s="97"/>
+      <c r="C5" s="64" t="s">
         <v>124</v>
       </c>
-      <c r="C2" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="79" t="s">
+      <c r="D5" s="66" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="25" customHeight="1">
+      <c r="A6" s="98"/>
+      <c r="B6" s="97"/>
+      <c r="C6" s="64" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="25" customHeight="1">
-      <c r="A3" s="108" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="109"/>
-    </row>
-    <row r="4" spans="1:4" ht="25" customHeight="1">
-      <c r="A4" s="103" t="s">
+      <c r="D6" s="66" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="25" customHeight="1">
+      <c r="A7" s="98"/>
+      <c r="B7" s="97"/>
+      <c r="C7" s="64" t="s">
         <v>126</v>
       </c>
-      <c r="B4" s="102" t="s">
+      <c r="D7" s="66" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="25" customHeight="1">
+      <c r="A8" s="98"/>
+      <c r="B8" s="97"/>
+      <c r="C8" s="64" t="s">
         <v>127</v>
       </c>
-      <c r="C4" s="72" t="s">
+      <c r="D8" s="66" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="25" customHeight="1">
+      <c r="A9" s="98"/>
+      <c r="B9" s="97"/>
+      <c r="C9" s="64" t="s">
         <v>128</v>
       </c>
-      <c r="D4" s="74" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="25" customHeight="1">
-      <c r="A5" s="103"/>
-      <c r="B5" s="102"/>
-      <c r="C5" s="72" t="s">
+      <c r="D9" s="66" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="25" customHeight="1">
+      <c r="A10" s="98"/>
+      <c r="B10" s="97"/>
+      <c r="C10" s="64" t="s">
         <v>129</v>
       </c>
-      <c r="D5" s="74" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="25" customHeight="1">
-      <c r="A6" s="103"/>
-      <c r="B6" s="102"/>
-      <c r="C6" s="72" t="s">
+      <c r="D10" s="66" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="25" customHeight="1">
+      <c r="A11" s="98"/>
+      <c r="B11" s="97"/>
+      <c r="C11" s="64" t="s">
         <v>130</v>
       </c>
-      <c r="D6" s="74" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="25" customHeight="1">
-      <c r="A7" s="103"/>
-      <c r="B7" s="102"/>
-      <c r="C7" s="72" t="s">
+      <c r="D11" s="66" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="25" customHeight="1">
+      <c r="A12" s="98"/>
+      <c r="B12" s="97"/>
+      <c r="C12" s="64" t="s">
         <v>131</v>
       </c>
-      <c r="D7" s="74" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="25" customHeight="1">
-      <c r="A8" s="103"/>
-      <c r="B8" s="102"/>
-      <c r="C8" s="72" t="s">
+      <c r="D12" s="66" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="25" customHeight="1">
+      <c r="A13" s="98"/>
+      <c r="B13" s="97"/>
+      <c r="C13" s="64" t="s">
         <v>132</v>
       </c>
-      <c r="D8" s="74" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="25" customHeight="1">
-      <c r="A9" s="103"/>
-      <c r="B9" s="102"/>
-      <c r="C9" s="72" t="s">
+      <c r="D13" s="66" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="25" customHeight="1">
+      <c r="A14" s="58" t="s">
         <v>133</v>
       </c>
-      <c r="D9" s="74" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="25" customHeight="1">
-      <c r="A10" s="103"/>
-      <c r="B10" s="102"/>
-      <c r="C10" s="72" t="s">
+      <c r="B14" s="54" t="s">
         <v>134</v>
       </c>
-      <c r="D10" s="74" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="25" customHeight="1">
-      <c r="A11" s="103"/>
-      <c r="B11" s="102"/>
-      <c r="C11" s="72" t="s">
+      <c r="C14" s="64" t="s">
         <v>135</v>
       </c>
-      <c r="D11" s="74" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="25" customHeight="1">
-      <c r="A12" s="103"/>
-      <c r="B12" s="102"/>
-      <c r="C12" s="72" t="s">
+      <c r="D14" s="66" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="25" customHeight="1">
+      <c r="A15" s="58" t="s">
         <v>136</v>
       </c>
-      <c r="D12" s="74" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="25" customHeight="1">
-      <c r="A13" s="103"/>
-      <c r="B13" s="102"/>
-      <c r="C13" s="72" t="s">
+      <c r="B15" s="70" t="s">
         <v>137</v>
       </c>
-      <c r="D13" s="74" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="25" customHeight="1">
-      <c r="A14" s="62" t="s">
+      <c r="C15" s="64" t="s">
         <v>138</v>
       </c>
-      <c r="B14" s="57" t="s">
+      <c r="D15" s="66" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="25" customHeight="1">
+      <c r="A16" s="58" t="s">
         <v>139</v>
       </c>
-      <c r="C14" s="72" t="s">
+      <c r="B16" s="70" t="s">
         <v>140</v>
       </c>
-      <c r="D14" s="74" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="25" customHeight="1">
-      <c r="A15" s="62" t="s">
+      <c r="C16" s="64" t="s">
         <v>141</v>
       </c>
-      <c r="B15" s="78" t="s">
+      <c r="D16" s="66" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="25" customHeight="1">
+      <c r="A17" s="91" t="s">
         <v>142</v>
       </c>
-      <c r="C15" s="72" t="s">
+      <c r="B17" s="90" t="s">
         <v>143</v>
       </c>
-      <c r="D15" s="74" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="25" customHeight="1">
-      <c r="A16" s="62" t="s">
+      <c r="C17" s="64" t="s">
         <v>144</v>
       </c>
-      <c r="B16" s="78" t="s">
+      <c r="D17" s="66" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="25" customHeight="1">
+      <c r="A18" s="91"/>
+      <c r="B18" s="90"/>
+      <c r="C18" s="64" t="s">
         <v>145</v>
       </c>
-      <c r="C16" s="72" t="s">
+      <c r="D18" s="66" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="25" customHeight="1">
+      <c r="A19" s="91"/>
+      <c r="B19" s="90"/>
+      <c r="C19" s="64" t="s">
         <v>146</v>
       </c>
-      <c r="D16" s="74" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="25" customHeight="1">
-      <c r="A17" s="105" t="s">
+      <c r="D19" s="66" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="25" customHeight="1">
+      <c r="A20" s="91"/>
+      <c r="B20" s="90"/>
+      <c r="C20" s="64" t="s">
         <v>147</v>
       </c>
-      <c r="B17" s="104" t="s">
+      <c r="D20" s="66" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="25" customHeight="1">
+      <c r="A21" s="58" t="s">
         <v>148</v>
       </c>
-      <c r="C17" s="72" t="s">
+      <c r="B21" s="70" t="s">
         <v>149</v>
       </c>
-      <c r="D17" s="74" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="25" customHeight="1">
-      <c r="A18" s="105"/>
-      <c r="B18" s="104"/>
-      <c r="C18" s="72" t="s">
+      <c r="C21" s="64" t="s">
         <v>150</v>
       </c>
-      <c r="D18" s="74" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="25" customHeight="1">
-      <c r="A19" s="105"/>
-      <c r="B19" s="104"/>
-      <c r="C19" s="72" t="s">
+      <c r="D21" s="66" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="25" customHeight="1">
+      <c r="A22" s="91" t="s">
         <v>151</v>
       </c>
-      <c r="D19" s="74" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="25" customHeight="1">
-      <c r="A20" s="105"/>
-      <c r="B20" s="104"/>
-      <c r="C20" s="72" t="s">
+      <c r="B22" s="90" t="s">
         <v>152</v>
       </c>
-      <c r="D20" s="74" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="25" customHeight="1">
-      <c r="A21" s="62" t="s">
+      <c r="C22" s="64" t="s">
         <v>153</v>
       </c>
-      <c r="B21" s="78" t="s">
+      <c r="D22" s="66" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="25" customHeight="1">
+      <c r="A23" s="91"/>
+      <c r="B23" s="90"/>
+      <c r="C23" s="64" t="s">
         <v>154</v>
       </c>
-      <c r="C21" s="72" t="s">
+      <c r="D23" s="66" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="25" customHeight="1">
+      <c r="A24" s="91"/>
+      <c r="B24" s="90"/>
+      <c r="C24" s="64" t="s">
         <v>155</v>
       </c>
-      <c r="D21" s="74" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="25" customHeight="1">
-      <c r="A22" s="105" t="s">
+      <c r="D24" s="66" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="25" customHeight="1">
+      <c r="A25" s="58" t="s">
         <v>156</v>
       </c>
-      <c r="B22" s="104" t="s">
+      <c r="B25" s="70" t="s">
         <v>157</v>
       </c>
-      <c r="C22" s="72" t="s">
+      <c r="C25" s="64" t="s">
         <v>158</v>
       </c>
-      <c r="D22" s="74" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="25" customHeight="1">
-      <c r="A23" s="105"/>
-      <c r="B23" s="104"/>
-      <c r="C23" s="72" t="s">
+      <c r="D25" s="66" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="25" customHeight="1">
+      <c r="A26" s="58" t="s">
         <v>159</v>
       </c>
-      <c r="D23" s="74" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="25" customHeight="1">
-      <c r="A24" s="105"/>
-      <c r="B24" s="104"/>
-      <c r="C24" s="72" t="s">
+      <c r="B26" s="70" t="s">
         <v>160</v>
       </c>
-      <c r="D24" s="74" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="25" customHeight="1">
-      <c r="A25" s="62" t="s">
+      <c r="C26" s="64" t="s">
         <v>161</v>
       </c>
-      <c r="B25" s="78" t="s">
+      <c r="D26" s="66" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="25" customHeight="1">
+      <c r="A27" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="C25" s="72" t="s">
+      <c r="B27" s="70" t="s">
         <v>163</v>
       </c>
-      <c r="D25" s="74" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="25" customHeight="1">
-      <c r="A26" s="62" t="s">
+      <c r="C27" s="64" t="s">
         <v>164</v>
       </c>
-      <c r="B26" s="78" t="s">
+      <c r="D27" s="66" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="25" customHeight="1">
+      <c r="A28" s="58" t="s">
         <v>165</v>
       </c>
-      <c r="C26" s="72" t="s">
+      <c r="B28" s="70" t="s">
         <v>166</v>
       </c>
-      <c r="D26" s="74" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="25" customHeight="1">
-      <c r="A27" s="62" t="s">
+      <c r="C28" s="64" t="s">
         <v>167</v>
       </c>
-      <c r="B27" s="78" t="s">
+      <c r="D28" s="66" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="25" customHeight="1">
+      <c r="A29" s="58" t="s">
         <v>168</v>
       </c>
-      <c r="C27" s="72" t="s">
+      <c r="B29" s="70" t="s">
         <v>169</v>
       </c>
-      <c r="D27" s="74" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="25" customHeight="1">
-      <c r="A28" s="62" t="s">
+      <c r="C29" s="64" t="s">
         <v>170</v>
       </c>
-      <c r="B28" s="78" t="s">
+      <c r="D29" s="66" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="25" customHeight="1">
+      <c r="A30" s="58" t="s">
         <v>171</v>
       </c>
-      <c r="C28" s="72" t="s">
+      <c r="B30" s="70" t="s">
         <v>172</v>
       </c>
-      <c r="D28" s="74" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="25" customHeight="1">
-      <c r="A29" s="62" t="s">
+      <c r="C30" s="64" t="s">
         <v>173</v>
       </c>
-      <c r="B29" s="78" t="s">
+      <c r="D30" s="66" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="25" customHeight="1">
+      <c r="A31" s="91" t="s">
         <v>174</v>
       </c>
-      <c r="C29" s="72" t="s">
+      <c r="B31" s="90" t="s">
         <v>175</v>
       </c>
-      <c r="D29" s="74" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="25" customHeight="1">
-      <c r="A30" s="62" t="s">
+      <c r="C31" s="64" t="s">
         <v>176</v>
       </c>
-      <c r="B30" s="78" t="s">
+      <c r="D31" s="66" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="25" customHeight="1">
+      <c r="A32" s="91"/>
+      <c r="B32" s="90"/>
+      <c r="C32" s="64" t="s">
         <v>177</v>
       </c>
-      <c r="C30" s="72" t="s">
+      <c r="D32" s="66" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="25" hidden="1" customHeight="1">
+      <c r="A33" s="88" t="s">
         <v>178</v>
       </c>
-      <c r="D30" s="74" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="25" customHeight="1">
-      <c r="A31" s="105" t="s">
+      <c r="B33" s="82"/>
+      <c r="C33" s="82"/>
+      <c r="D33" s="89"/>
+    </row>
+    <row r="34" spans="1:4" ht="25" hidden="1" customHeight="1">
+      <c r="A34" s="58" t="s">
         <v>179</v>
       </c>
-      <c r="B31" s="104" t="s">
+      <c r="B34" s="70" t="s">
         <v>180</v>
       </c>
-      <c r="C31" s="72" t="s">
+      <c r="C34" s="64" t="s">
         <v>181</v>
       </c>
-      <c r="D31" s="74" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="25" customHeight="1">
-      <c r="A32" s="105"/>
-      <c r="B32" s="104"/>
-      <c r="C32" s="72" t="s">
+      <c r="D34" s="66" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="25" hidden="1" customHeight="1">
+      <c r="A35" s="91" t="s">
         <v>182</v>
       </c>
-      <c r="D32" s="74" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="25" hidden="1" customHeight="1">
-      <c r="A33" s="108" t="s">
+      <c r="B35" s="90" t="s">
         <v>183</v>
       </c>
-      <c r="B33" s="93"/>
-      <c r="C33" s="93"/>
-      <c r="D33" s="109"/>
-    </row>
-    <row r="34" spans="1:4" ht="25" hidden="1" customHeight="1">
-      <c r="A34" s="62" t="s">
+      <c r="C35" s="64" t="s">
         <v>184</v>
       </c>
-      <c r="B34" s="78" t="s">
+      <c r="D35" s="66" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="25" hidden="1" customHeight="1">
+      <c r="A36" s="91"/>
+      <c r="B36" s="90"/>
+      <c r="C36" s="64" t="s">
         <v>185</v>
       </c>
-      <c r="C34" s="72" t="s">
+      <c r="D36" s="66" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="25" hidden="1" customHeight="1">
+      <c r="A37" s="91"/>
+      <c r="B37" s="90"/>
+      <c r="C37" s="64" t="s">
         <v>186</v>
       </c>
-      <c r="D34" s="74" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="25" hidden="1" customHeight="1">
-      <c r="A35" s="105" t="s">
+      <c r="D37" s="66" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="25" hidden="1" customHeight="1">
+      <c r="A38" s="91"/>
+      <c r="B38" s="90"/>
+      <c r="C38" s="64" t="s">
         <v>187</v>
       </c>
-      <c r="B35" s="104" t="s">
+      <c r="D38" s="66" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="25" hidden="1" customHeight="1">
+      <c r="A39" s="91" t="s">
         <v>188</v>
       </c>
-      <c r="C35" s="72" t="s">
+      <c r="B39" s="90" t="s">
         <v>189</v>
       </c>
-      <c r="D35" s="74" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="25" hidden="1" customHeight="1">
-      <c r="A36" s="105"/>
-      <c r="B36" s="104"/>
-      <c r="C36" s="72" t="s">
+      <c r="C39" s="64" t="s">
         <v>190</v>
       </c>
-      <c r="D36" s="74" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="25" hidden="1" customHeight="1">
-      <c r="A37" s="105"/>
-      <c r="B37" s="104"/>
-      <c r="C37" s="72" t="s">
+      <c r="D39" s="66" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="25" hidden="1" customHeight="1">
+      <c r="A40" s="91"/>
+      <c r="B40" s="90"/>
+      <c r="C40" s="64" t="s">
         <v>191</v>
       </c>
-      <c r="D37" s="74" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="25" hidden="1" customHeight="1">
-      <c r="A38" s="105"/>
-      <c r="B38" s="104"/>
-      <c r="C38" s="72" t="s">
+      <c r="D40" s="66" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="25" hidden="1" customHeight="1">
+      <c r="A41" s="91"/>
+      <c r="B41" s="90"/>
+      <c r="C41" s="64" t="s">
         <v>192</v>
       </c>
-      <c r="D38" s="74" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="25" hidden="1" customHeight="1">
-      <c r="A39" s="105" t="s">
+      <c r="D41" s="66" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="25" hidden="1" customHeight="1">
+      <c r="A42" s="91"/>
+      <c r="B42" s="90"/>
+      <c r="C42" s="64" t="s">
         <v>193</v>
       </c>
-      <c r="B39" s="104" t="s">
+      <c r="D42" s="66" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="25" hidden="1" customHeight="1">
+      <c r="A43" s="91" t="s">
         <v>194</v>
       </c>
-      <c r="C39" s="72" t="s">
+      <c r="B43" s="90" t="s">
         <v>195</v>
       </c>
-      <c r="D39" s="74" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="25" hidden="1" customHeight="1">
-      <c r="A40" s="105"/>
-      <c r="B40" s="104"/>
-      <c r="C40" s="72" t="s">
+      <c r="C43" s="64" t="s">
         <v>196</v>
       </c>
-      <c r="D40" s="74" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="25" hidden="1" customHeight="1">
-      <c r="A41" s="105"/>
-      <c r="B41" s="104"/>
-      <c r="C41" s="72" t="s">
+      <c r="D43" s="66" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="25" hidden="1" customHeight="1">
+      <c r="A44" s="91"/>
+      <c r="B44" s="90"/>
+      <c r="C44" s="64" t="s">
         <v>197</v>
       </c>
-      <c r="D41" s="74" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="25" hidden="1" customHeight="1">
-      <c r="A42" s="105"/>
-      <c r="B42" s="104"/>
-      <c r="C42" s="72" t="s">
+      <c r="D44" s="66" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="25" hidden="1" customHeight="1">
+      <c r="A45" s="58" t="s">
         <v>198</v>
       </c>
-      <c r="D42" s="74" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="25" hidden="1" customHeight="1">
-      <c r="A43" s="105" t="s">
+      <c r="B45" s="70" t="s">
         <v>199</v>
       </c>
-      <c r="B43" s="104" t="s">
+      <c r="C45" s="64" t="s">
         <v>200</v>
       </c>
-      <c r="C43" s="72" t="s">
+      <c r="D45" s="66" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="25" hidden="1" customHeight="1">
+      <c r="A46" s="91" t="s">
         <v>201</v>
       </c>
-      <c r="D43" s="74" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="25" hidden="1" customHeight="1">
-      <c r="A44" s="105"/>
-      <c r="B44" s="104"/>
-      <c r="C44" s="72" t="s">
+      <c r="B46" s="90" t="s">
         <v>202</v>
       </c>
-      <c r="D44" s="74" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="25" hidden="1" customHeight="1">
-      <c r="A45" s="62" t="s">
+      <c r="C46" s="64" t="s">
         <v>203</v>
       </c>
-      <c r="B45" s="78" t="s">
+      <c r="D46" s="66" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="25" hidden="1" customHeight="1">
+      <c r="A47" s="91"/>
+      <c r="B47" s="90"/>
+      <c r="C47" s="64" t="s">
         <v>204</v>
       </c>
-      <c r="C45" s="72" t="s">
+      <c r="D47" s="66" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="25" hidden="1" customHeight="1">
+      <c r="A48" s="91" t="s">
         <v>205</v>
       </c>
-      <c r="D45" s="74" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="25" hidden="1" customHeight="1">
-      <c r="A46" s="105" t="s">
+      <c r="B48" s="90" t="s">
         <v>206</v>
       </c>
-      <c r="B46" s="104" t="s">
+      <c r="C48" s="64" t="s">
         <v>207</v>
       </c>
-      <c r="C46" s="72" t="s">
+      <c r="D48" s="66" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="25" hidden="1" customHeight="1">
+      <c r="A49" s="91"/>
+      <c r="B49" s="90"/>
+      <c r="C49" s="64" t="s">
         <v>208</v>
       </c>
-      <c r="D46" s="74" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="25" hidden="1" customHeight="1">
-      <c r="A47" s="105"/>
-      <c r="B47" s="104"/>
-      <c r="C47" s="72" t="s">
+      <c r="D49" s="66" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="25" hidden="1" customHeight="1">
+      <c r="A50" s="91"/>
+      <c r="B50" s="90"/>
+      <c r="C50" s="64" t="s">
         <v>209</v>
       </c>
-      <c r="D47" s="74" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="25" hidden="1" customHeight="1">
-      <c r="A48" s="105" t="s">
+      <c r="D50" s="66" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="25" hidden="1" customHeight="1">
+      <c r="A51" s="58" t="s">
         <v>210</v>
       </c>
-      <c r="B48" s="104" t="s">
+      <c r="B51" s="70" t="s">
         <v>211</v>
       </c>
-      <c r="C48" s="72" t="s">
+      <c r="C51" s="64" t="s">
         <v>212</v>
       </c>
-      <c r="D48" s="74" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="25" hidden="1" customHeight="1">
-      <c r="A49" s="105"/>
-      <c r="B49" s="104"/>
-      <c r="C49" s="72" t="s">
+      <c r="D51" s="66" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="25" hidden="1" customHeight="1">
+      <c r="A52" s="58" t="s">
         <v>213</v>
       </c>
-      <c r="D49" s="74" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="25" hidden="1" customHeight="1">
-      <c r="A50" s="105"/>
-      <c r="B50" s="104"/>
-      <c r="C50" s="72" t="s">
+      <c r="B52" s="70" t="s">
         <v>214</v>
       </c>
-      <c r="D50" s="74" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="25" hidden="1" customHeight="1">
-      <c r="A51" s="62" t="s">
+      <c r="C52" s="64" t="s">
         <v>215</v>
       </c>
-      <c r="B51" s="78" t="s">
+      <c r="D52" s="66" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="25" hidden="1" customHeight="1">
+      <c r="A53" s="91" t="s">
         <v>216</v>
       </c>
-      <c r="C51" s="72" t="s">
+      <c r="B53" s="90" t="s">
         <v>217</v>
       </c>
-      <c r="D51" s="74" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="25" hidden="1" customHeight="1">
-      <c r="A52" s="62" t="s">
+      <c r="C53" s="64" t="s">
         <v>218</v>
       </c>
-      <c r="B52" s="78" t="s">
+      <c r="D53" s="66" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="25" hidden="1" customHeight="1">
+      <c r="A54" s="91"/>
+      <c r="B54" s="90"/>
+      <c r="C54" s="64" t="s">
         <v>219</v>
       </c>
-      <c r="C52" s="72" t="s">
+      <c r="D54" s="66" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="25" hidden="1" customHeight="1">
+      <c r="A55" s="88" t="s">
         <v>220</v>
       </c>
-      <c r="D52" s="74" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="25" hidden="1" customHeight="1">
-      <c r="A53" s="105" t="s">
+      <c r="B55" s="82"/>
+      <c r="C55" s="82"/>
+      <c r="D55" s="89"/>
+    </row>
+    <row r="56" spans="1:4" ht="25" hidden="1" customHeight="1">
+      <c r="A56" s="91" t="s">
         <v>221</v>
       </c>
-      <c r="B53" s="104" t="s">
+      <c r="B56" s="90" t="s">
         <v>222</v>
       </c>
-      <c r="C53" s="72" t="s">
+      <c r="C56" s="64" t="s">
         <v>223</v>
       </c>
-      <c r="D53" s="74" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="25" hidden="1" customHeight="1">
-      <c r="A54" s="105"/>
-      <c r="B54" s="104"/>
-      <c r="C54" s="72" t="s">
+      <c r="D56" s="66" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="25" hidden="1" customHeight="1">
+      <c r="A57" s="91"/>
+      <c r="B57" s="90"/>
+      <c r="C57" s="64" t="s">
         <v>224</v>
       </c>
-      <c r="D54" s="74" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="25" hidden="1" customHeight="1">
-      <c r="A55" s="108" t="s">
+      <c r="D57" s="66" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="25" hidden="1" customHeight="1">
+      <c r="A58" s="91" t="s">
         <v>225</v>
       </c>
-      <c r="B55" s="93"/>
-      <c r="C55" s="93"/>
-      <c r="D55" s="109"/>
-    </row>
-    <row r="56" spans="1:4" ht="25" hidden="1" customHeight="1">
-      <c r="A56" s="105" t="s">
+      <c r="B58" s="90" t="s">
         <v>226</v>
       </c>
-      <c r="B56" s="104" t="s">
+      <c r="C58" s="64" t="s">
         <v>227</v>
       </c>
-      <c r="C56" s="72" t="s">
+      <c r="D58" s="66" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="25" hidden="1" customHeight="1">
+      <c r="A59" s="91"/>
+      <c r="B59" s="90"/>
+      <c r="C59" s="64" t="s">
         <v>228</v>
       </c>
-      <c r="D56" s="74" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="25" hidden="1" customHeight="1">
-      <c r="A57" s="105"/>
-      <c r="B57" s="104"/>
-      <c r="C57" s="72" t="s">
+      <c r="D59" s="66" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="25" hidden="1" customHeight="1">
+      <c r="A60" s="58" t="s">
         <v>229</v>
       </c>
-      <c r="D57" s="74" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="25" hidden="1" customHeight="1">
-      <c r="A58" s="105" t="s">
+      <c r="B60" s="70" t="s">
         <v>230</v>
       </c>
-      <c r="B58" s="104" t="s">
+      <c r="C60" s="64" t="s">
         <v>231</v>
       </c>
-      <c r="C58" s="72" t="s">
+      <c r="D60" s="66" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="25" hidden="1" customHeight="1">
+      <c r="A61" s="91" t="s">
         <v>232</v>
       </c>
-      <c r="D58" s="74" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="25" hidden="1" customHeight="1">
-      <c r="A59" s="105"/>
-      <c r="B59" s="104"/>
-      <c r="C59" s="72" t="s">
+      <c r="B61" s="90" t="s">
         <v>233</v>
       </c>
-      <c r="D59" s="74" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="25" hidden="1" customHeight="1">
-      <c r="A60" s="62" t="s">
+      <c r="C61" s="64" t="s">
         <v>234</v>
       </c>
-      <c r="B60" s="78" t="s">
+      <c r="D61" s="66" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="25" hidden="1" customHeight="1">
+      <c r="A62" s="91"/>
+      <c r="B62" s="90"/>
+      <c r="C62" s="64" t="s">
         <v>235</v>
       </c>
-      <c r="C60" s="72" t="s">
+      <c r="D62" s="66" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="25" hidden="1" customHeight="1">
+      <c r="A63" s="58" t="s">
         <v>236</v>
       </c>
-      <c r="D60" s="74" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="25" hidden="1" customHeight="1">
-      <c r="A61" s="105" t="s">
+      <c r="B63" s="70" t="s">
         <v>237</v>
       </c>
-      <c r="B61" s="104" t="s">
+      <c r="C63" s="64" t="s">
         <v>238</v>
       </c>
-      <c r="C61" s="72" t="s">
+      <c r="D63" s="66" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="25" hidden="1" customHeight="1">
+      <c r="A64" s="58" t="s">
         <v>239</v>
       </c>
-      <c r="D61" s="74" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="25" hidden="1" customHeight="1">
-      <c r="A62" s="105"/>
-      <c r="B62" s="104"/>
-      <c r="C62" s="72" t="s">
+      <c r="B64" s="70" t="s">
         <v>240</v>
       </c>
-      <c r="D62" s="74" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="25" hidden="1" customHeight="1">
-      <c r="A63" s="62" t="s">
+      <c r="C64" s="64" t="s">
         <v>241</v>
       </c>
-      <c r="B63" s="78" t="s">
+      <c r="D64" s="66" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="25" hidden="1" customHeight="1">
+      <c r="A65" s="88" t="s">
         <v>242</v>
       </c>
-      <c r="C63" s="72" t="s">
+      <c r="B65" s="82"/>
+      <c r="C65" s="82"/>
+      <c r="D65" s="89"/>
+    </row>
+    <row r="66" spans="1:4" ht="25" hidden="1" customHeight="1">
+      <c r="A66" s="58" t="s">
         <v>243</v>
       </c>
-      <c r="D63" s="74" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="25" hidden="1" customHeight="1">
-      <c r="A64" s="62" t="s">
+      <c r="B66" s="70" t="s">
         <v>244</v>
       </c>
-      <c r="B64" s="78" t="s">
+      <c r="C66" s="64" t="s">
         <v>245</v>
       </c>
-      <c r="C64" s="72" t="s">
+      <c r="D66" s="66" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="25" hidden="1" customHeight="1">
+      <c r="A67" s="91" t="s">
         <v>246</v>
       </c>
-      <c r="D64" s="74" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="25" hidden="1" customHeight="1">
-      <c r="A65" s="108" t="s">
+      <c r="B67" s="90" t="s">
         <v>247</v>
       </c>
-      <c r="B65" s="93"/>
-      <c r="C65" s="93"/>
-      <c r="D65" s="109"/>
-    </row>
-    <row r="66" spans="1:4" ht="25" hidden="1" customHeight="1">
-      <c r="A66" s="62" t="s">
+      <c r="C67" s="64" t="s">
         <v>248</v>
       </c>
-      <c r="B66" s="78" t="s">
+      <c r="D67" s="66" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="25" hidden="1" customHeight="1">
+      <c r="A68" s="91"/>
+      <c r="B68" s="90"/>
+      <c r="C68" s="64" t="s">
         <v>249</v>
       </c>
-      <c r="C66" s="72" t="s">
+      <c r="D68" s="66" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="25" hidden="1" customHeight="1">
+      <c r="A69" s="91"/>
+      <c r="B69" s="90"/>
+      <c r="C69" s="64" t="s">
         <v>250</v>
       </c>
-      <c r="D66" s="74" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="25" hidden="1" customHeight="1">
-      <c r="A67" s="105" t="s">
+      <c r="D69" s="66" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="25" hidden="1" customHeight="1">
+      <c r="A70" s="91"/>
+      <c r="B70" s="90"/>
+      <c r="C70" s="64" t="s">
         <v>251</v>
       </c>
-      <c r="B67" s="104" t="s">
+      <c r="D70" s="66" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="25" hidden="1" customHeight="1">
+      <c r="A71" s="91"/>
+      <c r="B71" s="90"/>
+      <c r="C71" s="64" t="s">
         <v>252</v>
       </c>
-      <c r="C67" s="72" t="s">
+      <c r="D71" s="66" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="25" hidden="1" customHeight="1">
+      <c r="A72" s="91"/>
+      <c r="B72" s="90"/>
+      <c r="C72" s="64" t="s">
         <v>253</v>
       </c>
-      <c r="D67" s="74" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="25" hidden="1" customHeight="1">
-      <c r="A68" s="105"/>
-      <c r="B68" s="104"/>
-      <c r="C68" s="72" t="s">
+      <c r="D72" s="66" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="25" hidden="1" customHeight="1">
+      <c r="A73" s="91"/>
+      <c r="B73" s="90"/>
+      <c r="C73" s="64" t="s">
         <v>254</v>
       </c>
-      <c r="D68" s="74" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="25" hidden="1" customHeight="1">
-      <c r="A69" s="105"/>
-      <c r="B69" s="104"/>
-      <c r="C69" s="72" t="s">
+      <c r="D73" s="66" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="25" hidden="1" customHeight="1">
+      <c r="A74" s="91"/>
+      <c r="B74" s="90"/>
+      <c r="C74" s="64" t="s">
         <v>255</v>
       </c>
-      <c r="D69" s="74" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="25" hidden="1" customHeight="1">
-      <c r="A70" s="105"/>
-      <c r="B70" s="104"/>
-      <c r="C70" s="72" t="s">
+      <c r="D74" s="66" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="25" hidden="1" customHeight="1" thickBot="1">
+      <c r="A75" s="91"/>
+      <c r="B75" s="90"/>
+      <c r="C75" s="64" t="s">
         <v>256</v>
       </c>
-      <c r="D70" s="74" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="25" hidden="1" customHeight="1">
-      <c r="A71" s="105"/>
-      <c r="B71" s="104"/>
-      <c r="C71" s="72" t="s">
+      <c r="D75" s="67" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="25" hidden="1" customHeight="1" thickBot="1">
+      <c r="A76" s="93"/>
+      <c r="B76" s="92"/>
+      <c r="C76" s="65" t="s">
         <v>257</v>
       </c>
-      <c r="D71" s="74" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" ht="25" hidden="1" customHeight="1">
-      <c r="A72" s="105"/>
-      <c r="B72" s="104"/>
-      <c r="C72" s="72" t="s">
-        <v>258</v>
-      </c>
-      <c r="D72" s="74" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" ht="25" hidden="1" customHeight="1">
-      <c r="A73" s="105"/>
-      <c r="B73" s="104"/>
-      <c r="C73" s="72" t="s">
-        <v>259</v>
-      </c>
-      <c r="D73" s="74" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" ht="25" hidden="1" customHeight="1">
-      <c r="A74" s="105"/>
-      <c r="B74" s="104"/>
-      <c r="C74" s="72" t="s">
-        <v>260</v>
-      </c>
-      <c r="D74" s="74" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="25" hidden="1" customHeight="1" thickBot="1">
-      <c r="A75" s="105"/>
-      <c r="B75" s="104"/>
-      <c r="C75" s="72" t="s">
-        <v>261</v>
-      </c>
-      <c r="D75" s="75" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" ht="25" hidden="1" customHeight="1" thickBot="1">
-      <c r="A76" s="107"/>
-      <c r="B76" s="106"/>
-      <c r="C76" s="73" t="s">
-        <v>262</v>
-      </c>
-      <c r="D76" s="77" t="s">
-        <v>120</v>
+      <c r="D76" s="69" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A65:D65"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B4:B13"/>
+    <mergeCell ref="A4:A13"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="B43:B44"/>
     <mergeCell ref="B46:B47"/>
     <mergeCell ref="B67:B76"/>
     <mergeCell ref="A67:A76"/>
@@ -5183,18 +4854,11 @@
     <mergeCell ref="A61:A62"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A55:D55"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B4:B13"/>
-    <mergeCell ref="A4:A13"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A65:D65"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="A53:A54"/>
   </mergeCells>
   <conditionalFormatting sqref="D4:D32 D34:D54 D56:D64 D66:D76">
     <cfRule type="containsText" dxfId="5" priority="4" stopIfTrue="1" operator="containsText" text="Hold">
@@ -5245,16 +4909,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="110"/>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
+      <c r="A1" s="99"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="14"/>
@@ -5273,7 +4937,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{6ED93A24-CCCD-4D33-91E5-F4969E7AE70E}" showPageBreaks="1" showRuler="0">
+    <customSheetView guid="{D38D479A-4772-446A-9168-3CDAF7B2D6D0}" showRuler="0">
       <selection activeCell="B10" sqref="B10"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
       <pageSetup paperSize="9" orientation="portrait"/>
@@ -5282,7 +4946,7 @@
         <oddFooter>&amp;LOctober 8,2008&amp;C&amp;"Arial,Bold"Version 2.2      Classification: Company Internal&amp;RPage &amp;P of &amp;N</oddFooter>
       </headerFooter>
     </customSheetView>
-    <customSheetView guid="{D38D479A-4772-446A-9168-3CDAF7B2D6D0}" showRuler="0">
+    <customSheetView guid="{6ED93A24-CCCD-4D33-91E5-F4969E7AE70E}" showPageBreaks="1" showRuler="0">
       <selection activeCell="B10" sqref="B10"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
       <pageSetup paperSize="9" orientation="portrait"/>
@@ -5327,14 +4991,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" ht="18.5">
-      <c r="B2" s="111" t="s">
-        <v>263</v>
-      </c>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="113"/>
+      <c r="B2" s="100" t="s">
+        <v>258</v>
+      </c>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="102"/>
     </row>
     <row r="3" spans="1:7">
       <c r="B3" s="3"/>
@@ -5346,22 +5010,22 @@
     </row>
     <row r="4" spans="1:7" s="1" customFormat="1" ht="14.5">
       <c r="B4" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>264</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -5453,6 +5117,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100854415CEDA0C50498A1DC5EFED353611" ma:contentTypeVersion="3" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5b151a0e270bcbf462cbe1242630070f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="952a6df7-b138-4f89-9bc4-e7a874ea3254" xmlns:ns3="8447285f-db87-42c9-968f-fa00264c9f2f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="83b571372b95f26fd24865e0a5c07880" ns2:_="" ns3:_="">
     <xsd:import namespace="952a6df7-b138-4f89-9bc4-e7a874ea3254"/>
@@ -5622,16 +5295,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{059D7527-7986-4F23-B94A-469BF4C793AC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B56ACF38-1C4A-4E63-B3D1-02EDC7D3CCC8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5648,12 +5320,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{059D7527-7986-4F23-B94A-469BF4C793AC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>